--- a/Template/Example/Контактные лица.xlsx
+++ b/Template/Example/Контактные лица.xlsx
@@ -1,88 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Levdansky_vd\source\repos\DirectumCompany\rx-util-importdata-net-core\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Контактные лица" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Контактные лица'!$A$1:$M$6</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Контактные лица" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Контактные лица'!$A$1:$M$6</x:definedName>
+  </x:definedNames>
+  <x:calcPr calcId="152511"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Сайт</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>Подробности</t>
-  </si>
-  <si>
-    <t>Эл. Почта</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Должность</t>
-  </si>
-  <si>
-    <t>Телефон</t>
-  </si>
-  <si>
-    <t>Факс</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>Наша</t>
-  </si>
-  <si>
-    <t>Гл бух</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <x:si>
+    <x:t>Сайт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Примечание</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Дата</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Итог</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Подробности</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Эл. Почта</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Фамилия</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Имя</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Отчество</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Организация</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Должность</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Телефон</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Факс</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иван</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Иванович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Петров</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Петр</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Петрович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Владимиров</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Владимир</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Владимирович</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Авалон ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Политекс ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Точка Росы ООО</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Главный бухгалтер</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Инженер</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Главный специалист</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Загружен частично</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02.09.2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Авалон ООО". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Политекс ООО". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Найдено несколько записей типа сущности "Организация" с именем "Точка Росы ООО". Проверьте, что выбрана верная запись.</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +161,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0F0F0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -180,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -196,11 +240,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,174 +529,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="43" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:M7"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:dimension ref="A1:M7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="D10" sqref="D10"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="15.140625" customWidth="1"/>
+    <x:col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <x:col min="10" max="10" width="43" customWidth="1"/>
+    <x:col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
+    <x:col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A1" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C1" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D1" s="10" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A2" s="5" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B2" s="8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="8" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D2" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E2" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F2" s="5"/>
+      <x:c r="G2" s="5"/>
+      <x:c r="H2" s="5"/>
+      <x:c r="I2" s="5"/>
+      <x:c r="J2" s="5"/>
+      <x:c r="K2" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L2" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M2" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A3" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D3" s="5" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F3" s="5"/>
+      <x:c r="G3" s="5"/>
+      <x:c r="H3" s="5"/>
+      <x:c r="I3" s="5"/>
+      <x:c r="J3" s="5"/>
+      <x:c r="K3" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L3" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M3" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A4" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B4" s="8" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="8" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D4" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F4" s="5"/>
+      <x:c r="G4" s="5"/>
+      <x:c r="H4" s="5"/>
+      <x:c r="I4" s="5"/>
+      <x:c r="J4" s="5"/>
+      <x:c r="K4" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L4" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="M4" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A5" s="5"/>
+      <x:c r="B5" s="5"/>
+      <x:c r="C5" s="6"/>
+      <x:c r="D5" s="6"/>
+      <x:c r="E5" s="5"/>
+      <x:c r="F5" s="5"/>
+      <x:c r="G5" s="5"/>
+      <x:c r="H5" s="5"/>
+      <x:c r="I5" s="5"/>
+      <x:c r="J5" s="5"/>
+      <x:c r="K5" s="7"/>
+      <x:c r="L5" s="2"/>
+      <x:c r="M5" s="2"/>
+    </x:row>
+    <x:row r="6" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A6" s="5"/>
+      <x:c r="B6" s="5"/>
+      <x:c r="C6" s="6"/>
+      <x:c r="D6" s="6"/>
+      <x:c r="E6" s="5"/>
+      <x:c r="F6" s="5"/>
+      <x:c r="G6" s="5"/>
+      <x:c r="H6" s="5"/>
+      <x:c r="I6" s="5"/>
+      <x:c r="J6" s="5"/>
+      <x:c r="K6" s="7"/>
+      <x:c r="L6" s="2"/>
+      <x:c r="M6" s="2"/>
+    </x:row>
+    <x:row r="7" spans="1:13" s="1" customFormat="1" ht="15.2" customHeight="1" x14ac:dyDescent="0.2">
+      <x:c r="A7" s="5"/>
+      <x:c r="B7" s="5"/>
+      <x:c r="C7" s="6"/>
+      <x:c r="D7" s="6"/>
+      <x:c r="E7" s="5"/>
+      <x:c r="F7" s="5"/>
+      <x:c r="G7" s="5"/>
+      <x:c r="H7" s="5"/>
+      <x:c r="I7" s="5"/>
+      <x:c r="J7" s="5"/>
+      <x:c r="K7" s="7"/>
+      <x:c r="L7" s="2"/>
+      <x:c r="M7" s="3"/>
+    </x:row>
+  </x:sheetData>
+  <x:autoFilter ref="A1:M7"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</x:worksheet>
 </file>